--- a/졸업요건.xlsx
+++ b/졸업요건.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mook\IdeaProjects\FirstJava\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB23AD07-9FF7-46F7-B2F3-E02A11A99772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="8"/>
+    <workbookView xWindow="2640" yWindow="1344" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,9 @@
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -298,8 +298,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -654,35 +654,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.4140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.58203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.58203125" customWidth="1"/>
-    <col min="8" max="9" width="12.4140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.4140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.25" customWidth="1"/>
-    <col min="12" max="12" width="18.25" customWidth="1"/>
-    <col min="13" max="13" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.59765625" customWidth="1"/>
+    <col min="8" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.19921875" customWidth="1"/>
+    <col min="12" max="12" width="18.19921875" customWidth="1"/>
+    <col min="13" max="13" width="8.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -726,7 +726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -762,7 +762,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -783,7 +783,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -804,7 +804,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -825,7 +825,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -844,7 +844,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -863,7 +863,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -882,7 +882,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -901,7 +901,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -920,7 +920,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -939,7 +939,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -964,28 +964,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N1" sqref="N1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.9140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.58203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.25" customWidth="1"/>
-    <col min="8" max="9" width="12.4140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.4140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.75" customWidth="1"/>
-    <col min="12" max="12" width="16.08203125" customWidth="1"/>
+    <col min="4" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.19921875" customWidth="1"/>
+    <col min="8" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.69921875" customWidth="1"/>
+    <col min="12" max="12" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -1088,7 +1088,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1107,7 +1107,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1126,7 +1126,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1143,7 +1143,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
@@ -1160,7 +1160,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
@@ -1177,7 +1177,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
@@ -1194,7 +1194,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
@@ -1211,7 +1211,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
@@ -1228,7 +1228,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1253,28 +1253,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="N1" sqref="N1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.58203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="9" width="12.4140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.4140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.75" customWidth="1"/>
-    <col min="12" max="12" width="17.75" customWidth="1"/>
+    <col min="8" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.69921875" customWidth="1"/>
+    <col min="12" max="12" width="17.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -1373,7 +1373,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1392,7 +1392,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1411,7 +1411,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1428,7 +1428,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1445,7 +1445,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1462,7 +1462,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1479,7 +1479,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1496,7 +1496,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1513,7 +1513,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1530,7 +1530,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1554,28 +1554,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="N1" sqref="N1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.08203125" customWidth="1"/>
-    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.09765625" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.58203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.58203125" customWidth="1"/>
-    <col min="8" max="9" width="12.4140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.4140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" customWidth="1"/>
-    <col min="12" max="12" width="15.25" customWidth="1"/>
+    <col min="4" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.59765625" customWidth="1"/>
+    <col min="8" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.19921875" customWidth="1"/>
+    <col min="12" max="12" width="15.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1693,7 +1693,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1712,7 +1712,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1729,7 +1729,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1746,7 +1746,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1763,7 +1763,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1780,7 +1780,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1797,7 +1797,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1814,7 +1814,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1838,25 +1838,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.4140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.69921875" customWidth="1"/>
     <col min="11" max="11" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -1921,7 +1921,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
@@ -1938,7 +1938,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
@@ -1955,7 +1955,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
@@ -1972,7 +1972,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1989,7 +1989,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2006,7 +2006,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2023,7 +2023,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2040,7 +2040,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2057,7 +2057,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2074,7 +2074,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2091,7 +2091,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2108,7 +2108,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2132,24 +2132,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.25" customWidth="1"/>
-    <col min="11" max="11" width="13.58203125" customWidth="1"/>
+    <col min="7" max="7" width="13.19921875" customWidth="1"/>
+    <col min="9" max="9" width="11.296875" customWidth="1"/>
+    <col min="10" max="10" width="14.19921875" customWidth="1"/>
+    <col min="11" max="11" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -2214,7 +2214,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
@@ -2231,7 +2231,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
@@ -2248,7 +2248,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
@@ -2265,7 +2265,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2282,7 +2282,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2299,7 +2299,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2316,7 +2316,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2333,7 +2333,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2350,7 +2350,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2367,7 +2367,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2384,7 +2384,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2401,7 +2401,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2418,7 +2418,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2435,7 +2435,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2452,7 +2452,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2476,22 +2476,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.4140625" customWidth="1"/>
-    <col min="7" max="7" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -2556,7 +2556,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2573,7 +2573,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2590,7 +2590,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2607,7 +2607,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2624,7 +2624,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2641,7 +2641,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2658,7 +2658,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2675,7 +2675,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2692,7 +2692,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2709,7 +2709,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2726,7 +2726,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2743,7 +2743,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2760,7 +2760,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2784,22 +2784,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -2864,7 +2864,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -2885,7 +2885,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2902,7 +2902,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2919,7 +2919,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2936,7 +2936,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2953,7 +2953,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2970,7 +2970,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2987,7 +2987,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3004,7 +3004,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3021,7 +3021,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3038,7 +3038,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3062,22 +3062,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.58203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -3142,7 +3142,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -3161,7 +3161,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3178,7 +3178,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3195,7 +3195,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3212,7 +3212,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3229,7 +3229,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3246,7 +3246,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3263,7 +3263,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3280,7 +3280,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3297,7 +3297,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>

--- a/졸업요건.xlsx
+++ b/졸업요건.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mook\IdeaProjects\FirstJava\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB23AD07-9FF7-46F7-B2F3-E02A11A99772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1344" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,16 +18,22 @@
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="64">
   <si>
     <t>총이수학점</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,10 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>글로벌SW 전공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>해외복수학위트랙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,14 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>외국인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교환학생</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>교양</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,10 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,14 +276,26 @@
   </si>
   <si>
     <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외국인복수전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외국인교환학생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -654,35 +650,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.59765625" customWidth="1"/>
-    <col min="8" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.19921875" customWidth="1"/>
-    <col min="12" max="12" width="18.19921875" customWidth="1"/>
-    <col min="13" max="13" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.58203125" customWidth="1"/>
+    <col min="8" max="9" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.4140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" customWidth="1"/>
+    <col min="12" max="12" width="18.25" customWidth="1"/>
+    <col min="13" max="13" width="8.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -690,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -708,7 +704,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
@@ -726,26 +722,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -756,13 +752,13 @@
         <v>19</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -783,7 +779,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -804,7 +800,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -825,7 +821,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -844,7 +840,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -863,7 +859,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -882,7 +878,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -901,7 +897,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -920,7 +916,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -939,7 +935,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -964,28 +960,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.9140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.19921875" customWidth="1"/>
-    <col min="8" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.69921875" customWidth="1"/>
-    <col min="12" max="12" width="16.09765625" customWidth="1"/>
+    <col min="4" max="5" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" customWidth="1"/>
+    <col min="8" max="9" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.4140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.75" customWidth="1"/>
+    <col min="12" max="12" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -993,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1005,13 +1001,13 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
@@ -1029,48 +1025,46 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1088,7 +1082,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1107,7 +1101,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1126,7 +1120,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1143,7 +1137,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
@@ -1160,7 +1154,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
@@ -1177,7 +1171,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
@@ -1194,7 +1188,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
@@ -1211,7 +1205,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
@@ -1228,7 +1222,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1253,28 +1247,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="19.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.58203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.69921875" customWidth="1"/>
-    <col min="12" max="12" width="17.69921875" customWidth="1"/>
+    <col min="8" max="9" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.4140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.75" customWidth="1"/>
+    <col min="12" max="12" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -1282,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1294,13 +1288,13 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
@@ -1318,27 +1312,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1346,16 +1340,14 @@
         <v>9</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1373,7 +1365,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1392,7 +1384,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1411,7 +1403,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1428,7 +1420,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1445,7 +1437,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1462,7 +1454,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1479,7 +1471,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1496,7 +1488,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1513,7 +1505,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1530,7 +1522,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1554,28 +1546,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="14.09765625" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.08203125" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.59765625" customWidth="1"/>
-    <col min="8" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.19921875" customWidth="1"/>
-    <col min="12" max="12" width="15.19921875" customWidth="1"/>
+    <col min="4" max="5" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.58203125" customWidth="1"/>
+    <col min="8" max="9" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.4140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" customWidth="1"/>
+    <col min="12" max="12" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -1583,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1595,13 +1587,13 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
@@ -1619,26 +1611,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1647,16 +1639,13 @@
         <v>9</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1674,7 +1663,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1693,7 +1682,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1712,7 +1701,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1729,7 +1718,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1746,7 +1735,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1763,7 +1752,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1780,7 +1769,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1797,7 +1786,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1814,7 +1803,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1838,25 +1827,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.69921875" customWidth="1"/>
+    <col min="7" max="7" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.75" customWidth="1"/>
     <col min="11" max="11" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -1864,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1882,7 +1871,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
@@ -1900,12 +1889,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -1921,7 +1910,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
@@ -1938,7 +1927,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
@@ -1955,7 +1944,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
@@ -1972,7 +1961,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1989,7 +1978,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2006,7 +1995,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2023,7 +2012,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2040,7 +2029,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2057,7 +2046,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2074,7 +2063,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2091,7 +2080,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2108,7 +2097,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2132,24 +2121,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.19921875" customWidth="1"/>
-    <col min="9" max="9" width="11.296875" customWidth="1"/>
-    <col min="10" max="10" width="14.19921875" customWidth="1"/>
-    <col min="11" max="11" width="13.59765625" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.25" customWidth="1"/>
+    <col min="11" max="11" width="13.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -2157,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2175,7 +2164,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
@@ -2193,12 +2182,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -2214,7 +2203,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
@@ -2231,7 +2220,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
@@ -2248,7 +2237,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
@@ -2265,7 +2254,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2282,7 +2271,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2299,7 +2288,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2316,7 +2305,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2333,7 +2322,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2350,7 +2339,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2367,7 +2356,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2384,7 +2373,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2401,7 +2390,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2418,7 +2407,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2435,7 +2424,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2452,7 +2441,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2476,22 +2465,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.4140625" customWidth="1"/>
+    <col min="7" max="7" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -2499,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2517,7 +2506,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
@@ -2535,12 +2524,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -2556,7 +2545,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2573,7 +2562,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2590,7 +2579,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2607,7 +2596,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2624,7 +2613,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2641,7 +2630,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2658,7 +2647,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2675,7 +2664,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2692,7 +2681,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2709,7 +2698,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2726,7 +2715,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2743,7 +2732,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2760,7 +2749,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2784,22 +2773,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -2807,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2825,7 +2814,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
@@ -2843,12 +2832,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -2864,12 +2853,10 @@
       <c r="N2" s="1"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
@@ -2885,7 +2872,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2902,7 +2889,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2919,7 +2906,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2936,7 +2923,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2953,7 +2940,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2970,7 +2957,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2987,7 +2974,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3004,7 +2991,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3021,7 +3008,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3038,7 +3025,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3062,22 +3049,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -3085,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -3103,7 +3090,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
@@ -3121,12 +3108,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -3142,10 +3129,8 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3161,7 +3146,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3178,7 +3163,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3195,7 +3180,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3212,7 +3197,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3229,7 +3214,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3246,7 +3231,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3263,7 +3248,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3280,7 +3265,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3297,7 +3282,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
